--- a/BalanceSheet/RJF_bal.xlsx
+++ b/BalanceSheet/RJF_bal.xlsx
@@ -4291,7 +4291,7 @@
         <v>18609000000.0</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>19311000000.0</v>
+        <v>-3943000000.0</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>-3805000000.0</v>
@@ -4420,7 +4420,7 @@
         <v>33552000000.0</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>26212000000.0</v>
+        <v>3284000000.0</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>2757000000.0</v>
